--- a/biology/Biochimie/Laurylsulfate_de_sodium/Laurylsulfate_de_sodium.xlsx
+++ b/biology/Biochimie/Laurylsulfate_de_sodium/Laurylsulfate_de_sodium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le laurylsulfate de sodium (LSS) ou dodécylsulfate de sodium (en anglais, sodium dodecyl sulfate ou SDS), plus connu sous sa dénomination INCI sodium lauryl sulfate ou SLS, est un détergent et tensioactif ionique fort, couramment utilisé en biochimie et biologie moléculaire.
@@ -514,11 +526,13 @@
           <t>Chimie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La molécule (C12H25NaO4S) est composée d’une chaîne de douze atomes de carbone, rattachée à un groupement sulfate conférant à la molécule les propriétés amphiphiles requises pour un détergent. Le SDS est préparé par sulfonation du dodécan-1-ol (alcool de lauryl, C12H25OH), suivie par une neutralisation par du carbonate de sodium.
-Plus récemment, le SDS a trouvé une application comme surfactant pour les réactions de formation d’hydrates de gaz ou d’hydrates de méthane, augmentant le taux de formation de près de sept cents fois[5].
-La concentration micellaire critique du SDS varie de 0,007 à 0,01 mol L−1 dans l'eau à 25 °C[6].
+Plus récemment, le SDS a trouvé une application comme surfactant pour les réactions de formation d’hydrates de gaz ou d’hydrates de méthane, augmentant le taux de formation de près de sept cents fois.
+La concentration micellaire critique du SDS varie de 0,007 à 0,01 mol L−1 dans l'eau à 25 °C.
 </t>
         </is>
       </c>
@@ -547,9 +561,11 @@
           <t>Biochimie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En laboratoire , le SDS est communément utilisé afin de préparer des protéines pour réaliser une électrophorèse sur gel de polyacrylamide (SDS-PAGE). Le SDS supprime les liaisons non-covalentes de la protéine, permettant la dénaturation de la protéine, la molécule perd donc à terme sa conformation initiale. De plus, les anions du SDS se lient aux peptides à raison d’un anion du SDS tous les deux acides aminés. Cela confère à la protéine une charge globale négative qui est proportionnelle à la masse de la protéine  (environ 1,4 g de SDS pour 1 g de protéine)[7]. Les nombreuses charges négatives apportées par les groupements sulfate du SDS dominent la charge totale du complexe formé avec la protéine. La répulsion électrostatique qui est  créée par la liaison du SDS cause aussi le dépliement de la structure 3D de la protéine qui adopte alors une conformation étendue, ainsi les différences dues à la conformation de la protéine, apparaissant habituellement au cours de la séparation du gel, sont écartées.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En laboratoire , le SDS est communément utilisé afin de préparer des protéines pour réaliser une électrophorèse sur gel de polyacrylamide (SDS-PAGE). Le SDS supprime les liaisons non-covalentes de la protéine, permettant la dénaturation de la protéine, la molécule perd donc à terme sa conformation initiale. De plus, les anions du SDS se lient aux peptides à raison d’un anion du SDS tous les deux acides aminés. Cela confère à la protéine une charge globale négative qui est proportionnelle à la masse de la protéine  (environ 1,4 g de SDS pour 1 g de protéine). Les nombreuses charges négatives apportées par les groupements sulfate du SDS dominent la charge totale du complexe formé avec la protéine. La répulsion électrostatique qui est  créée par la liaison du SDS cause aussi le dépliement de la structure 3D de la protéine qui adopte alors une conformation étendue, ainsi les différences dues à la conformation de la protéine, apparaissant habituellement au cours de la séparation du gel, sont écartées.
 </t>
         </is>
       </c>
@@ -578,13 +594,15 @@
           <t>Problèmes liés au SDS</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un certain nombre de conditions de sécurité lors de l’utilisation de SDS ont été consignées dans les publications[8],[9],[10]. Elles incluent les recommandations suivantes :
-le SDS peut causer des affections de la peau (dont le nom général est la dermatite), certaines personnes étant plus affectées que d’autres[10],[11],[12] ;
-les recherches toxicologiques effectuées par l'OSHA (Occupational Safety and Health Administration), le NTP (United States Department of Health and Human Services) ainsi que le CIRC (Centre international de recherche sur le cancer) appuient les conclusions de la Cosmetic, Toiletry and Fragrance Association (CTFA) ainsi que l'American Cancer Society qui déclarent que SLES n'est pas cancérogène[13] ;
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un certain nombre de conditions de sécurité lors de l’utilisation de SDS ont été consignées dans les publications. Elles incluent les recommandations suivantes :
+le SDS peut causer des affections de la peau (dont le nom général est la dermatite), certaines personnes étant plus affectées que d’autres ;
+les recherches toxicologiques effectuées par l'OSHA (Occupational Safety and Health Administration), le NTP (United States Department of Health and Human Services) ainsi que le CIRC (Centre international de recherche sur le cancer) appuient les conclusions de la Cosmetic, Toiletry and Fragrance Association (CTFA) ainsi que l'American Cancer Society qui déclarent que SLES n'est pas cancérogène ;
 bien que le SLES soit légèrement moins irritant que le SDS, il peut se révéler dangereux par le fait qu’il n’est pas métabolisable par le foie[réf. nécessaire] ;
-le SDS est connu pour causer des ulcères aphteux ; il est référencé dans certains pays comme « rongeur de plaie »[14],[15] ;
+le SDS est connu pour causer des ulcères aphteux ; il est référencé dans certains pays comme « rongeur de plaie », ;
 le SDS peut être utilisé en remplacement des SLES (pourtant moins irritants) pour la fabrication de savons, shampooings, lessives, dentifrices et autres produits de bains en raison de son faible coût.
 Le laurylsulfate de sodium est employé comme ingrédient non-médicinal dans l'assemblage du médicament Cymbalta(MC) utilisé pour soulager la dépression et la douleur associée au diabète (neuropathie périphérique).
 </t>
